--- a/DaySale_2025-05-20_21-42.xlsx
+++ b/DaySale_2025-05-20_21-42.xlsx
@@ -617,10 +617,10 @@
     <t>QUIBRON T/SR 300MG 100 TAB</t>
   </si>
   <si>
-    <t>1:46</t>
-  </si>
-  <si>
-    <t>0:15</t>
+    <t>1:38</t>
+  </si>
+  <si>
+    <t>0:23</t>
   </si>
   <si>
     <t>RANI-F 20MG 6 SACHETS</t>
@@ -1402,7 +1402,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="4">
-        <v>45797.904515581635</v>
+        <v>45797.904805456375</v>
       </c>
       <c r="F4" s="4"/>
       <c t="s" r="G4" s="3">
@@ -1411,7 +1411,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="4">
-        <v>45797.904515581635</v>
+        <v>45797.904805456375</v>
       </c>
       <c r="K4" s="4"/>
     </row>
